--- a/Jun 2020 to Jul 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jun 2020 to Jul 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB94C79-2648-46A2-A4EA-D2C22B39F9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C962FCA-5ABE-4127-900C-06137B226AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="May 2020 to Jun 2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Jun 2020 to Jul 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2020 to Jun 2020'!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Jun 2020 to Jul 2020'!$A$1:$E$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>

--- a/Jun 2020 to Jul 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Jun 2020 to Jul 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C962FCA-5ABE-4127-900C-06137B226AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC9BEC-904F-499D-A467-53C47B77D20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,28 +208,28 @@
     <t>Showtime BET RED</t>
   </si>
   <si>
-    <t>New Network added to database in Jul 2020</t>
-  </si>
-  <si>
-    <t>Old Network removed from database in Jul 2020</t>
-  </si>
-  <si>
-    <t>New alias added for Network in Jul 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Service in Jul 2020</t>
-  </si>
-  <si>
-    <t>Network moved to different Add-On Service in Jul 2020</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Service in Jul 2020</t>
-  </si>
-  <si>
-    <t>Network added to Base Service in Jul 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Base service in Jul 2020</t>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service in Jul 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service in Jul 2020</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Jul 2020</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1081,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1124,7 +1124,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1141,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1175,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1223,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1257,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1271,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1288,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1319,7 +1319,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1367,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1401,7 +1401,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1418,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1435,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1449,7 +1449,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1466,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1500,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1517,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1548,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1565,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1582,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1599,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1613,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1630,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1644,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1686,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1700,7 +1700,7 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1728,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1742,7 +1742,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1756,7 +1756,7 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1770,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1812,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1826,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1868,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1882,7 +1882,7 @@
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1896,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1910,7 +1910,7 @@
         <v>59</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1924,7 +1924,7 @@
         <v>60</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -1938,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -1980,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -1994,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
